--- a/xlsx/中世纪_intext.xlsx
+++ b/xlsx/中世纪_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="686">
   <si>
     <t>中世纪</t>
   </si>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E9%A1%8D%E6%88%91%E7%95%A5%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗額我略一世</t>
+    <t>教宗额我略一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%A6%8F%E7%89%B9</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>古典時代</t>
+    <t>古典时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E5%8F%B2</t>
   </si>
   <si>
-    <t>現代史</t>
+    <t>现代史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E5%89%8D%E6%9C%9F</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%B8%AD%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀中期</t>
+    <t>中世纪中期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%BE%8C%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀後期</t>
+    <t>中世纪后期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>維京人</t>
+    <t>维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%89%8E%E5%B0%94%E4%BA%BA</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%89%98%C2%B7%E8%BF%AA%C2%B7%E9%82%A6%E5%A4%9A%E7%B4%8D</t>
   </si>
   <si>
-    <t>喬托·迪·邦多納</t>
+    <t>乔托·迪·邦多纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%86%E4%B8%81</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%A5%A7%E7%B4%8D%E5%BA%A6%C2%B7%E5%B8%83%E5%80%AB%E5%B0%BC</t>
   </si>
   <si>
-    <t>李奧納度·布倫尼</t>
+    <t>李奥纳度·布伦尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E4%B9%89%E6%96%87%E5%AD%A6</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>義大利文藝復興</t>
+    <t>义大利文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%97%B6%E4%BB%A3%E6%99%9A%E6%9C%9F</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%96%E7%B4%80%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>三世紀危機</t>
+    <t>三世纪危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%8F%8A%E7%8E%8B%E6%9C%9D</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BE%B7%E9%87%8C%E5%AE%89%E5%A0%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>阿德里安堡戰役</t>
+    <t>阿德里安堡战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%A5%E7%89%B9%E4%BA%BA</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%E9%87%8C%E5%85%8B</t>
   </si>
   <si>
-    <t>狄奧多里克</t>
+    <t>狄奥多里克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%86%85%E7%93%A6</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BE%B7%E9%87%8C%E4%BA%9E%E5%A0%A1</t>
   </si>
   <si>
-    <t>亞德里亞堡</t>
+    <t>亚德里亚堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E5%B0%94%E4%BA%BA</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>中世紀飲食</t>
+    <t>中世纪饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E7%88%BE%E7%9A%84%E9%A1%8D%E6%88%91%E7%95%A5</t>
   </si>
   <si>
-    <t>都爾的額我略</t>
+    <t>都尔的额我略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E8%AE%B0</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%AD%AF-%E6%92%92%E5%85%8B%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>盎格魯-撒克遜人</t>
+    <t>盎格鲁-撒克逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E9%9A%90%E4%BF%AE%E9%99%A2%E9%99%A2%E9%95%BF</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>圖爾戰役</t>
+    <t>图尔战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AD%E9%A9%AC%E4%BA%9A%E7%8E%8B%E6%9C%9D</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>維京時代</t>
+    <t>维京时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B4%9B%E6%9E%97%E7%8E%8B%E6%9C%9D</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%A3%AE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>墨爾森條約</t>
+    <t>墨尔森条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AE%E5%AD%90%E4%B8%95%E5%B9%B3</t>
@@ -1085,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%95%E8%98%AD%E5%85%8B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>西法蘭克王國</t>
+    <t>西法兰克王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B3%95%E8%98%AD%E5%85%8B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>東法蘭克王國</t>
+    <t>东法兰克王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9E%97</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81%E4%BA%BA</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>薩克遜人</t>
+    <t>萨克逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E7%89%B9%E4%BA%BA</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A1%9E%E5%85%8B%E6%96%AF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>威塞克斯王國</t>
+    <t>威塞克斯王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -1217,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
@@ -1343,13 +1343,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%B5%AB%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>博赫尼亞</t>
+    <t>博赫尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%88%A9%E5%A5%87%E5%8D%A1</t>
   </si>
   <si>
-    <t>維利奇卡</t>
+    <t>维利奇卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%88%A9%E5%A5%87%E5%8D%A1%E7%9B%90%E7%9F%BF</t>
@@ -1361,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97</t>
   </si>
   <si>
-    <t>波茲南</t>
+    <t>波兹南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%AD%AF%E4%BB%80%E7%B6%AD%E5%AF%9F</t>
   </si>
   <si>
-    <t>克魯什維察</t>
+    <t>克鲁什维察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E4%BB%80</t>
@@ -1505,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A1%8D%E6%88%91%E7%95%A5%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>聖額我略一世</t>
+    <t>圣额我略一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
@@ -1547,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>神聖羅馬皇帝</t>
+    <t>神圣罗马皇帝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ottonian_Renaissance</t>
@@ -1823,15 +1823,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>伊斯蘭文明</t>
+    <t>伊斯兰文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%90%89%E6%80%9D%E6%B1%97</t>
   </si>
   <si>
@@ -1841,25 +1838,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>文藝復興時期</t>
+    <t>文艺复兴时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占庭帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E9%BB%91%E6%9A%97%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>歐洲黑暗時代</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>Template talk-中世紀</t>
+    <t>Template talk-中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -1895,13 +1886,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>維京時期</t>
+    <t>维京时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%95%99%E6%9C%83%E6%96%AF%E6%8B%89%E5%A4%AB%E8%AA%9E</t>
   </si>
   <si>
-    <t>古教會斯拉夫語</t>
+    <t>古教会斯拉夫语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85%E7%BD%97%E6%96%AF</t>
@@ -1925,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>東西教會大分裂</t>
+    <t>东西教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BB%BB%E6%9D%83%E6%96%97%E4%BA%89</t>
@@ -1937,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%A4%B1%E5%9C%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復失地運動</t>
+    <t>收复失地运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E9%81%93_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
@@ -1955,9 +1946,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E6%BA%AB%E6%9A%96%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀溫暖時期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -1973,7 +1961,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%89%AE%E7%AC%AC%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>勃艮第公國</t>
+    <t>勃艮第公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
@@ -1985,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>天主教會大分裂</t>
+    <t>天主教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1%E7%9A%84%E9%99%B7%E8%90%BD</t>
@@ -1997,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E5%B4%9B%E8%B5%B7</t>
   </si>
   <si>
-    <t>奧斯曼帝國的崛起</t>
+    <t>奥斯曼帝国的崛起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%BF%91%E5%8D%AB%E9%98%9F</t>
@@ -2009,13 +1997,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E4%BA%BA%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文藝復興人文主義</t>
+    <t>文艺复兴人文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀大學</t>
+    <t>中世纪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%86%B0%E6%9C%9F</t>
@@ -2039,19 +2027,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>中世紀音樂</t>
+    <t>中世纪音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E7%BE%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀美學</t>
+    <t>中世纪美学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E6%88%98%E4%BA%89</t>
@@ -2063,9 +2051,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%97%B6%E4%BB%A3</t>
   </si>
   <si>
-    <t>古典时代</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
@@ -2081,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -11274,7 +11259,7 @@
         <v>603</v>
       </c>
       <c r="F305" t="s">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11300,10 +11285,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>604</v>
+      </c>
+      <c r="F306" t="s">
         <v>605</v>
-      </c>
-      <c r="F306" t="s">
-        <v>606</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11329,10 +11314,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>606</v>
+      </c>
+      <c r="F307" t="s">
         <v>607</v>
-      </c>
-      <c r="F307" t="s">
-        <v>608</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11358,10 +11343,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F308" t="s">
-        <v>610</v>
+        <v>54</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11387,10 +11372,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F309" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11416,10 +11401,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F310" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G310" t="n">
         <v>8</v>
@@ -11445,10 +11430,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F311" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G311" t="n">
         <v>32</v>
@@ -11532,10 +11517,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11590,10 +11575,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G316" t="n">
         <v>5</v>
@@ -11619,10 +11604,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11677,10 +11662,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11706,10 +11691,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11735,10 +11720,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11764,10 +11749,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11822,10 +11807,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F324" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11851,10 +11836,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11880,10 +11865,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11909,10 +11894,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11938,10 +11923,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11967,10 +11952,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F329" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11996,10 +11981,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F330" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -12025,10 +12010,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F331" t="s">
-        <v>646</v>
+        <v>76</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12054,10 +12039,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12083,10 +12068,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12112,10 +12097,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12141,10 +12126,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12170,10 +12155,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12199,10 +12184,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12228,10 +12213,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12257,10 +12242,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12286,10 +12271,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12315,10 +12300,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12344,10 +12329,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12373,10 +12358,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F343" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12431,10 +12416,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12460,10 +12445,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12489,10 +12474,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12518,10 +12503,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12547,10 +12532,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12576,10 +12561,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>30</v>
       </c>
       <c r="G350" t="n">
         <v>5</v>
@@ -12605,10 +12590,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12634,10 +12619,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12692,10 +12677,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -12721,10 +12706,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
